--- a/unit_testing/main_funcs/output dataframes/spss_mr_tests_minimalStats.xlsx
+++ b/unit_testing/main_funcs/output dataframes/spss_mr_tests_minimalStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop_current\MAPAS\GitHub\unit_testing\main_funcs\output dataframes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD8AD5F-537B-4D42-A8E3-8F50F917AC0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703BFD2E-95E5-43DD-A005-17752D57D602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="1305" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Variable</t>
   </si>
@@ -37,6 +37,9 @@
     <t>t</t>
   </si>
   <si>
+    <t>pvalues</t>
+  </si>
+  <si>
     <t>(Constant)</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>-0.00</t>
   </si>
   <si>
+    <t>[, ]</t>
+  </si>
+  <si>
     <t>0.29</t>
   </si>
   <si>
@@ -92,27 +98,6 @@
   </si>
   <si>
     <t>-0.03</t>
-  </si>
-  <si>
-    <t>.205</t>
-  </si>
-  <si>
-    <t>.119</t>
-  </si>
-  <si>
-    <t>.232</t>
-  </si>
-  <si>
-    <t>.480</t>
-  </si>
-  <si>
-    <t>.975</t>
-  </si>
-  <si>
-    <t>pvalues</t>
-  </si>
-  <si>
-    <t>[, ]</t>
   </si>
 </sst>
 </file>
@@ -517,7 +502,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,104 +524,104 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>0.20530027175263471</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>0.11858268365069501</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>0.2318148727428361</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>0.4795222310408439</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>0.97524781505563041</v>
       </c>
     </row>
   </sheetData>
